--- a/Results/Sentiment Analysis-1/Multi-period Analysis Harvard.xlsx
+++ b/Results/Sentiment Analysis-1/Multi-period Analysis Harvard.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Lead_3</t>
+  </si>
+  <si>
+    <t>(financial)</t>
   </si>
 </sst>
 </file>
@@ -637,10 +640,291 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sentiment</c:v>
+            <c:v>Daily Sentiment (Financial)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AAPL!$D$2:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42810</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42811</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42814</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42815</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42817</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42821</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42822</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42823</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42828</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42829</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42830</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42831</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42835</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42836</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42837</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42838</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42842</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42843</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42844</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42846</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42849</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42850</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42851</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42852</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AAPL!$H$2:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>8.6956521739099998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7956989247300001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.09810671256E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.36054421769E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3201320132E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7543859649100001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.3399638336299999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.72284644195E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.48367952522E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.8823529411799998E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3102310231000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.1743119266099998E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6695451928599999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9141193595300002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1153601019799999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.0367610531500002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.6084568918200001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.0227497527200006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.2115384615399998E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.37426900585E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2105263157900003E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2994350282500001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.11699000588E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.16838487973E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.5814422592000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.2298136646000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.3194675540799998E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.7162534435299998E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.77367205543E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.9539052496799999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.1146051712099997E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.6170798898099999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.9404019404000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.99233716475E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.7389100126699999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.4024455077100002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.0373514431200002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9.5078299776300002E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.4164305949E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.6791808873700003E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.2541165999100002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Daily Sentiment (Harvard)</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1039,17 +1323,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167009664"/>
-        <c:axId val="167132544"/>
+        <c:axId val="73460736"/>
+        <c:axId val="127339904"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Daily Return</c:v>
+            <c:v>Daily Return (rhs)</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1331,11 +1615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167136256"/>
-        <c:axId val="167134720"/>
+        <c:axId val="183754752"/>
+        <c:axId val="133254144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167009664"/>
+        <c:axId val="73460736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,12 +1629,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="167132544"/>
+        <c:crossAx val="127339904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167132544"/>
+        <c:axId val="127339904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -1363,12 +1647,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167009664"/>
+        <c:crossAx val="73460736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167134720"/>
+        <c:axId val="133254144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,12 +1662,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167136256"/>
+        <c:crossAx val="183754752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167136256"/>
+        <c:axId val="183754752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167134720"/>
+        <c:crossAx val="133254144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1572,11 +1856,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="71613824"/>
-        <c:axId val="71615616"/>
+        <c:axId val="71684480"/>
+        <c:axId val="71686016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71613824"/>
+        <c:axId val="71684480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,7 +1869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="71615616"/>
+        <c:crossAx val="71686016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1593,7 +1877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71615616"/>
+        <c:axId val="71686016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1625,7 +1909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71613824"/>
+        <c:crossAx val="71684480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2084,8 +2368,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143334784"/>
-        <c:axId val="143336576"/>
+        <c:axId val="73471104"/>
+        <c:axId val="73472640"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2370,11 +2654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="143339904"/>
-        <c:axId val="143338112"/>
+        <c:axId val="73475968"/>
+        <c:axId val="73474432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143334784"/>
+        <c:axId val="73471104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,12 +2668,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="143336576"/>
+        <c:crossAx val="73472640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143336576"/>
+        <c:axId val="73472640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -2402,12 +2686,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143334784"/>
+        <c:crossAx val="73471104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143338112"/>
+        <c:axId val="73474432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,12 +2701,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143339904"/>
+        <c:crossAx val="73475968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143339904"/>
+        <c:axId val="73475968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143338112"/>
+        <c:crossAx val="73474432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2611,11 +2895,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143352576"/>
-        <c:axId val="143354112"/>
+        <c:axId val="73492736"/>
+        <c:axId val="73494528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143352576"/>
+        <c:axId val="73492736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,7 +2908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="143354112"/>
+        <c:crossAx val="73494528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2632,7 +2916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143354112"/>
+        <c:axId val="73494528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2664,7 +2948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143352576"/>
+        <c:crossAx val="73492736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2833,11 +3117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="269261440"/>
-        <c:axId val="269268480"/>
+        <c:axId val="217013632"/>
+        <c:axId val="471607936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="269261440"/>
+        <c:axId val="217013632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,7 +3130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="269268480"/>
+        <c:crossAx val="471607936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2854,7 +3138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269268480"/>
+        <c:axId val="471607936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2886,7 +3170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269261440"/>
+        <c:crossAx val="217013632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3345,8 +3629,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288692864"/>
-        <c:axId val="305070848"/>
+        <c:axId val="544654080"/>
+        <c:axId val="544655616"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3625,11 +3909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305799168"/>
-        <c:axId val="305072384"/>
+        <c:axId val="547580928"/>
+        <c:axId val="547579008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288692864"/>
+        <c:axId val="544654080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3639,12 +3923,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="305070848"/>
+        <c:crossAx val="544655616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305070848"/>
+        <c:axId val="544655616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -3657,12 +3941,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288692864"/>
+        <c:crossAx val="544654080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305072384"/>
+        <c:axId val="547579008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,12 +3956,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305799168"/>
+        <c:crossAx val="547580928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305799168"/>
+        <c:axId val="547580928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3687,7 +3971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305072384"/>
+        <c:crossAx val="547579008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3866,11 +4150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="314923264"/>
-        <c:axId val="314971648"/>
+        <c:axId val="548066432"/>
+        <c:axId val="581292800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314923264"/>
+        <c:axId val="548066432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,7 +4163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="314971648"/>
+        <c:crossAx val="581292800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3887,7 +4171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314971648"/>
+        <c:axId val="581292800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3919,7 +4203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314923264"/>
+        <c:crossAx val="548066432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4378,8 +4662,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527767424"/>
-        <c:axId val="527822848"/>
+        <c:axId val="71303168"/>
+        <c:axId val="71304704"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4664,11 +4948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="530837504"/>
-        <c:axId val="527824384"/>
+        <c:axId val="71308032"/>
+        <c:axId val="71306240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="527767424"/>
+        <c:axId val="71303168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4678,12 +4962,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="527822848"/>
+        <c:crossAx val="71304704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527822848"/>
+        <c:axId val="71304704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -4696,12 +4980,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527767424"/>
+        <c:crossAx val="71303168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527824384"/>
+        <c:axId val="71306240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4711,12 +4995,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530837504"/>
+        <c:crossAx val="71308032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530837504"/>
+        <c:axId val="71308032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4726,7 +5010,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527824384"/>
+        <c:crossAx val="71306240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4905,11 +5189,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="600505344"/>
-        <c:axId val="606638848"/>
+        <c:axId val="71320704"/>
+        <c:axId val="71322240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="600505344"/>
+        <c:axId val="71320704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4918,7 +5202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="606638848"/>
+        <c:crossAx val="71322240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4926,7 +5210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="606638848"/>
+        <c:axId val="71322240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4958,7 +5242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="600505344"/>
+        <c:crossAx val="71320704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5417,8 +5701,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69710976"/>
-        <c:axId val="69712512"/>
+        <c:axId val="71341952"/>
+        <c:axId val="71343488"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5709,11 +5993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69719936"/>
-        <c:axId val="69718400"/>
+        <c:axId val="71346816"/>
+        <c:axId val="71345280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69710976"/>
+        <c:axId val="71341952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5723,12 +6007,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="69712512"/>
+        <c:crossAx val="71343488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69712512"/>
+        <c:axId val="71343488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -5741,12 +6025,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69710976"/>
+        <c:crossAx val="71341952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69718400"/>
+        <c:axId val="71345280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5756,12 +6040,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69719936"/>
+        <c:crossAx val="71346816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69719936"/>
+        <c:axId val="71346816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5771,7 +6055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69718400"/>
+        <c:crossAx val="71345280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5945,11 +6229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="69728512"/>
-        <c:axId val="71577600"/>
+        <c:axId val="71400448"/>
+        <c:axId val="71406336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69728512"/>
+        <c:axId val="71400448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,7 +6242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="71577600"/>
+        <c:crossAx val="71406336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5966,7 +6250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71577600"/>
+        <c:axId val="71406336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5998,7 +6282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69728512"/>
+        <c:crossAx val="71400448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6457,8 +6741,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71600384"/>
-        <c:axId val="71602176"/>
+        <c:axId val="71646208"/>
+        <c:axId val="71656192"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6737,11 +7021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71605248"/>
-        <c:axId val="71603712"/>
+        <c:axId val="71659520"/>
+        <c:axId val="71657728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71600384"/>
+        <c:axId val="71646208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6751,12 +7035,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="71602176"/>
+        <c:crossAx val="71656192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71602176"/>
+        <c:axId val="71656192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,12 +7051,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71600384"/>
+        <c:crossAx val="71646208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71603712"/>
+        <c:axId val="71657728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6782,12 +7066,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71605248"/>
+        <c:crossAx val="71659520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71605248"/>
+        <c:axId val="71659520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6797,7 +7081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71603712"/>
+        <c:crossAx val="71657728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7520,7 +7804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7546,6 +7832,9 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -7564,6 +7853,9 @@
         <f>VLOOKUP(D2,$A:$B,2,FALSE)</f>
         <v>0.121739130435</v>
       </c>
+      <c r="H2">
+        <v>8.6956521739099998E-2</v>
+      </c>
       <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
@@ -7586,8 +7878,11 @@
         <v>-5.9373777921286498E-3</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G43" si="0">VLOOKUP(D3,$A:$B,2,FALSE)</f>
+        <f t="shared" ref="G3:H43" si="0">VLOOKUP(D3,$A:$B,2,FALSE)</f>
         <v>2.0063492063499999E-2</v>
+      </c>
+      <c r="H3">
+        <v>2.7956989247300001E-3</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -7618,6 +7913,9 @@
         <f t="shared" si="0"/>
         <v>7.0117203507900003E-2</v>
       </c>
+      <c r="H4">
+        <v>3.09810671256E-2</v>
+      </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
@@ -7647,6 +7945,9 @@
         <f t="shared" si="0"/>
         <v>3.3531746031699998E-2</v>
       </c>
+      <c r="H5">
+        <v>1.36054421769E-2</v>
+      </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
@@ -7676,6 +7977,9 @@
         <f t="shared" si="0"/>
         <v>3.3569071192799997E-2</v>
       </c>
+      <c r="H6">
+        <v>-1.3201320132E-3</v>
+      </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
@@ -7705,6 +8009,9 @@
         <f t="shared" si="0"/>
         <v>3.98960363873E-2</v>
       </c>
+      <c r="H7">
+        <v>-1.7543859649100001E-2</v>
+      </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
@@ -7734,6 +8041,9 @@
         <f t="shared" si="0"/>
         <v>-1.48368208043E-2</v>
       </c>
+      <c r="H8">
+        <v>-4.3399638336299999E-2</v>
+      </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
@@ -7763,6 +8073,9 @@
         <f t="shared" si="0"/>
         <v>2.8635634028900001E-2</v>
       </c>
+      <c r="H9">
+        <v>1.72284644195E-2</v>
+      </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
@@ -7792,6 +8105,9 @@
         <f t="shared" si="0"/>
         <v>4.0942489755500001E-2</v>
       </c>
+      <c r="H10">
+        <v>-1.48367952522E-2</v>
+      </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
@@ -7821,6 +8137,9 @@
         <f t="shared" si="0"/>
         <v>6.4656862745100005E-2</v>
       </c>
+      <c r="H11">
+        <v>-5.8823529411799998E-3</v>
+      </c>
       <c r="I11" t="s">
         <v>9</v>
       </c>
@@ -7850,6 +8169,9 @@
         <f t="shared" si="0"/>
         <v>1.12480635819E-2</v>
       </c>
+      <c r="H12">
+        <v>2.3102310231000001E-2</v>
+      </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
@@ -7879,6 +8201,9 @@
         <f t="shared" si="0"/>
         <v>5.9545653123600002E-2</v>
       </c>
+      <c r="H13">
+        <v>-9.1743119266099998E-3</v>
+      </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
@@ -7908,6 +8233,9 @@
         <f t="shared" si="0"/>
         <v>2.3139238424200001E-2</v>
       </c>
+      <c r="H14">
+        <v>1.6695451928599999E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -7930,6 +8258,9 @@
         <f t="shared" si="0"/>
         <v>6.3641089623600003E-2</v>
       </c>
+      <c r="H15">
+        <v>6.9141193595300002E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -7952,8 +8283,11 @@
         <f t="shared" si="0"/>
         <v>1.8908768096099999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>1.1153601019799999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42810</v>
       </c>
@@ -7974,8 +8308,11 @@
         <f t="shared" si="0"/>
         <v>4.3094883258800003E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>-2.0367610531500002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42811</v>
       </c>
@@ -7996,8 +8333,11 @@
         <f t="shared" si="0"/>
         <v>-2.3201537616700001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>-2.6084568918200001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42812</v>
       </c>
@@ -8018,8 +8358,11 @@
         <f t="shared" si="0"/>
         <v>-2.1815976637900001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>-7.0227497527200006E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42813</v>
       </c>
@@ -8040,8 +8383,11 @@
         <f t="shared" si="0"/>
         <v>2.9456654456700001E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>-7.2115384615399998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42814</v>
       </c>
@@ -8062,8 +8408,11 @@
         <f t="shared" si="0"/>
         <v>2.5137844611499999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>1.37426900585E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42815</v>
       </c>
@@ -8084,8 +8433,11 @@
         <f t="shared" si="0"/>
         <v>9.9599567099599995E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>4.2105263157900003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42816</v>
       </c>
@@ -8106,8 +8458,11 @@
         <f t="shared" si="0"/>
         <v>6.1226795803099997E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>1.2994350282500001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42817</v>
       </c>
@@ -8128,8 +8483,11 @@
         <f t="shared" si="0"/>
         <v>4.9752246577600003E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>-1.11699000588E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42818</v>
       </c>
@@ -8150,8 +8508,11 @@
         <f t="shared" si="0"/>
         <v>0.14016691212599999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>1.16838487973E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42819</v>
       </c>
@@ -8172,8 +8533,11 @@
         <f t="shared" si="0"/>
         <v>8.7476013648499995E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>-9.5814422592000008E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42820</v>
       </c>
@@ -8194,8 +8558,11 @@
         <f t="shared" si="0"/>
         <v>1.3974169377899999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>-3.2298136646000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42821</v>
       </c>
@@ -8216,8 +8583,11 @@
         <f t="shared" si="0"/>
         <v>-2.9419221931700001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>-8.3194675540799998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42822</v>
       </c>
@@ -8238,8 +8608,11 @@
         <f t="shared" si="0"/>
         <v>-5.7064147973199999E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>-5.7162534435299998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42823</v>
       </c>
@@ -8260,8 +8633,11 @@
         <f t="shared" si="0"/>
         <v>-5.9826239964800004E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>-5.77367205543E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42824</v>
       </c>
@@ -8282,8 +8658,11 @@
         <f t="shared" si="0"/>
         <v>-1.0013617055900001E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>-5.9539052496799999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42825</v>
       </c>
@@ -8304,8 +8683,11 @@
         <f t="shared" si="0"/>
         <v>-5.4773551628899998E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>-6.1146051712099997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42826</v>
       </c>
@@ -8326,8 +8708,11 @@
         <f t="shared" si="0"/>
         <v>3.1489481592800003E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>-2.6170798898099999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42827</v>
       </c>
@@ -8348,8 +8733,11 @@
         <f t="shared" si="0"/>
         <v>5.8212058212099996E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>-1.9404019404000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42828</v>
       </c>
@@ -8370,8 +8758,11 @@
         <f t="shared" si="0"/>
         <v>3.1381134829399998E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>1.99233716475E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42829</v>
       </c>
@@ -8392,8 +8783,11 @@
         <f t="shared" si="0"/>
         <v>-4.7549640895600001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>-3.7389100126699999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42830</v>
       </c>
@@ -8414,8 +8808,11 @@
         <f t="shared" si="0"/>
         <v>-9.9250651882200006E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>-3.4024455077100002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42831</v>
       </c>
@@ -8436,8 +8833,11 @@
         <f t="shared" si="0"/>
         <v>1.4653569407400001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>-2.0373514431200002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42832</v>
       </c>
@@ -8458,8 +8858,11 @@
         <f t="shared" si="0"/>
         <v>-8.3097505668900007E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42833</v>
       </c>
@@ -8480,8 +8883,11 @@
         <f t="shared" si="0"/>
         <v>-2.62064557367E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>-9.5078299776300002E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42834</v>
       </c>
@@ -8502,8 +8908,11 @@
         <f t="shared" si="0"/>
         <v>5.00247313278E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>-1.4164305949E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42835</v>
       </c>
@@ -8524,8 +8933,11 @@
         <f t="shared" si="0"/>
         <v>-8.3674630261699995E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>-7.6791808873700003E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42836</v>
       </c>
@@ -8546,8 +8958,11 @@
         <f t="shared" si="0"/>
         <v>-1.5633543136900001E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>-7.2541165999100002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42837</v>
       </c>
@@ -8555,7 +8970,7 @@
         <v>-5.4773551628899998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42838</v>
       </c>
@@ -8563,7 +8978,7 @@
         <v>3.1489481592800003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42839</v>
       </c>
@@ -8571,7 +8986,7 @@
         <v>2.1464465183099999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42840</v>
       </c>
@@ -8579,7 +8994,7 @@
         <v>2.7346938775499999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42841</v>
       </c>
@@ -9870,7 +10285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13395,7 +13812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
